--- a/data/trans_dic/P05B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P05B_R-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.004721349585868937</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.002782994961174489</v>
+        <v>0.002782994961174488</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.02486073630080771</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01206690111509075</v>
+        <v>0.01201887947187438</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.005941800423495243</v>
+        <v>0.006005311951269999</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01873032528692561</v>
+        <v>0.01774574719686561</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.001338987094068317</v>
+        <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.001355365131445557</v>
+        <v>0.001343359135262711</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0009599782285337961</v>
+        <v>0.0008469395064129008</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0173046922357627</v>
+        <v>0.01689281647797584</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.001184501263096374</v>
+        <v>0.001195045128329008</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.004833384780809326</v>
+        <v>0.004649007760770324</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.0009926220137426956</v>
+        <v>0.000959993709277331</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03422533618748789</v>
+        <v>0.03345810323270135</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.009605560663963935</v>
+        <v>0.008365918480979038</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02599289487606929</v>
+        <v>0.02689331462515188</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.006637154410273932</v>
+        <v>0.007660160233422546</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04520423704235243</v>
+        <v>0.04520779991664104</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01106966573340647</v>
+        <v>0.01232518272027174</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01286699441515161</v>
+        <v>0.01267474325009446</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.006967961984710108</v>
+        <v>0.006855153986182519</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03417719144260548</v>
+        <v>0.03382140971274746</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.006958773117575322</v>
+        <v>0.007863474622829244</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01594421474896682</v>
+        <v>0.01691674231210005</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.004979004664708546</v>
+        <v>0.004610312107682361</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01490213881969717</v>
+        <v>0.01446325338408099</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.008970293477192656</v>
+        <v>0.009439887870611001</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.006023848815389864</v>
+        <v>0.006357606267595704</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.001242233142695089</v>
+        <v>0.001231999125831836</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03211075677944355</v>
+        <v>0.03265582308593029</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01711686922208448</v>
+        <v>0.01630741458393496</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01069345914786805</v>
+        <v>0.01036576168526157</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.002850752694011866</v>
+        <v>0.002946712677606302</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0267038648839571</v>
+        <v>0.02574461842607778</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01483883101295433</v>
+        <v>0.01503090540001777</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.009302217042873887</v>
+        <v>0.009512882654940005</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.002836495015101201</v>
+        <v>0.002898763952465409</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03497026096351886</v>
+        <v>0.03527942134280104</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0262672927095028</v>
+        <v>0.02723700779997746</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02068949321224769</v>
+        <v>0.02216294252541557</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.009979003111846532</v>
+        <v>0.01073542173928169</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05882907967659026</v>
+        <v>0.0594482003659326</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03877664794226971</v>
+        <v>0.03714148188845483</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02672309074485561</v>
+        <v>0.02739579777411038</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01164653684485455</v>
+        <v>0.01159831013557507</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04315906815591292</v>
+        <v>0.04307444537232923</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02886903798299431</v>
+        <v>0.0290388374092585</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02095367458083423</v>
+        <v>0.02071234456228296</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.009237948254859693</v>
+        <v>0.009220330451319914</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.01612085010744754</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.006033644751813749</v>
+        <v>0.006033644751813748</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.03913671636096851</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01409555662887042</v>
+        <v>0.01389152964073432</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01147824257362032</v>
+        <v>0.01203958529579608</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.008110211514676707</v>
+        <v>0.00788418189641622</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.001633910027960587</v>
+        <v>0.001721296053681219</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02642077253101767</v>
+        <v>0.02628590783495704</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.005267648256681774</v>
+        <v>0.005274789459169981</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0212955545000945</v>
+        <v>0.02296388931903587</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.001579684625994346</v>
+        <v>0.001652529378827529</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02326608299725982</v>
+        <v>0.02235980883064227</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.009818612666364435</v>
+        <v>0.01042994627935694</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01746218874796233</v>
+        <v>0.01693648794476603</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.002478167081239173</v>
+        <v>0.002368461244890166</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04105832727108755</v>
+        <v>0.04065956805961646</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03423488108491416</v>
+        <v>0.03513267367501682</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02839491481136696</v>
+        <v>0.02810520000663484</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01437291412280345</v>
+        <v>0.01334316747774122</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05642796966761355</v>
+        <v>0.05583705278685213</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02119908557296057</v>
+        <v>0.02058024346906722</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04834460000165898</v>
+        <v>0.04917884142712589</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.009247043349972232</v>
+        <v>0.01004622300070349</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04425439460677336</v>
+        <v>0.04154755975335112</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02403034873233206</v>
+        <v>0.02349421010516284</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03343729687849537</v>
+        <v>0.03340196260622718</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.01038862893175661</v>
+        <v>0.01018462412538567</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0339524566744878</v>
+        <v>0.03366663871032778</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0155293652041493</v>
+        <v>0.01534769834405892</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.007261886171305532</v>
+        <v>0.007165696127229676</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01709307880054867</v>
+        <v>0.01808275209083237</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05283229033816227</v>
+        <v>0.05164824133005334</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0118106562700347</v>
+        <v>0.01203582397537119</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01810725838864914</v>
+        <v>0.01832942992147834</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02382131907287902</v>
+        <v>0.02272001460819901</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04711598350961202</v>
+        <v>0.04715231924477768</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01563506944235541</v>
+        <v>0.01528400314509627</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01488613968913563</v>
+        <v>0.01491348043544202</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02354936014321569</v>
+        <v>0.02303289441111165</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06123050165227034</v>
+        <v>0.06025768106543435</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03706288795604051</v>
+        <v>0.03602840550196926</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02430439962450534</v>
+        <v>0.02338243000240237</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03981615432598963</v>
+        <v>0.04064658348634193</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08479505996232747</v>
+        <v>0.08307579659843171</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02962649736273007</v>
+        <v>0.02925555038851431</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03984811813316858</v>
+        <v>0.03954575103902114</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04274447384853117</v>
+        <v>0.04245801548567038</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06829335754601228</v>
+        <v>0.06799225803693715</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02872332208200727</v>
+        <v>0.02960535096767911</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02899383877978383</v>
+        <v>0.02855885095861855</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03798969256187949</v>
+        <v>0.03785295207296216</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02386214542493052</v>
+        <v>0.02390753992748186</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01233855453768955</v>
+        <v>0.01243732603169585</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.009987750208644876</v>
+        <v>0.009791737424753951</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.007438672027563699</v>
+        <v>0.007452154428965952</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03971732864200321</v>
+        <v>0.04007718174581351</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01268292336441369</v>
+        <v>0.01199103059714544</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01629264890369675</v>
+        <v>0.01666361291740618</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01009411047760168</v>
+        <v>0.009982128828630166</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0340387241217887</v>
+        <v>0.03386111568779577</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0134025999914357</v>
+        <v>0.0135940503269317</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01470838475738285</v>
+        <v>0.01457903737601208</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.009473406639879391</v>
+        <v>0.00964868309739474</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03560572440267813</v>
+        <v>0.03636472077989468</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02159212489357603</v>
+        <v>0.02128966962974415</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01785403474650687</v>
+        <v>0.0184263566666483</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01498528482582845</v>
+        <v>0.01488839208021984</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05507797816365619</v>
+        <v>0.05479194402787485</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02129048302924894</v>
+        <v>0.0210389663153802</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02652837696665094</v>
+        <v>0.02684812667828664</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.01640828122089821</v>
+        <v>0.01652964457744735</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04332391961276835</v>
+        <v>0.04307990637625513</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.01985962742272847</v>
+        <v>0.01969453237667335</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02144383690537686</v>
+        <v>0.02098125803704046</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.01446059456256115</v>
+        <v>0.01430647763469524</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8363</v>
+        <v>8330</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4001</v>
+        <v>4043</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>12893</v>
+        <v>12215</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>930</v>
+        <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>704</v>
+        <v>621</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>23905</v>
+        <v>23336</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1656</v>
+        <v>1671</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>6497</v>
+        <v>6250</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1413</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>23720</v>
+        <v>23189</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6757</v>
+        <v>5885</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>17502</v>
+        <v>18108</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>4577</v>
+        <v>5283</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>31116</v>
+        <v>31119</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>7692</v>
+        <v>8564</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>8633</v>
+        <v>8504</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>5113</v>
+        <v>5030</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>47213</v>
+        <v>46722</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>9731</v>
+        <v>10996</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>21434</v>
+        <v>22741</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>7087</v>
+        <v>6562</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>14333</v>
+        <v>13911</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9096</v>
+        <v>9572</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6152</v>
+        <v>6493</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1299</v>
+        <v>1289</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>31044</v>
+        <v>31571</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>17595</v>
+        <v>16763</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>11121</v>
+        <v>10780</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3051</v>
+        <v>3153</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>51500</v>
+        <v>49650</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>30300</v>
+        <v>30692</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>19175</v>
+        <v>19609</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>6003</v>
+        <v>6134</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>33634</v>
+        <v>33932</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>26635</v>
+        <v>27618</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>21131</v>
+        <v>22636</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>10439</v>
+        <v>11230</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>56874</v>
+        <v>57473</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>39859</v>
+        <v>38178</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>27790</v>
+        <v>28490</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>12463</v>
+        <v>12411</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>83235</v>
+        <v>83072</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>58948</v>
+        <v>59295</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>43191</v>
+        <v>42694</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>19549</v>
+        <v>19512</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>9564</v>
+        <v>9426</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>8696</v>
+        <v>9121</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6152</v>
+        <v>5980</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1309</v>
+        <v>1379</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>18068</v>
+        <v>17975</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4082</v>
+        <v>4088</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>16670</v>
+        <v>17976</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1283</v>
+        <v>1342</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>31697</v>
+        <v>30462</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>15048</v>
+        <v>15985</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>26915</v>
+        <v>26104</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>3998</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>27858</v>
+        <v>27588</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>25937</v>
+        <v>26617</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>21538</v>
+        <v>21318</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>11516</v>
+        <v>10691</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>38588</v>
+        <v>38184</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>16429</v>
+        <v>15949</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>37844</v>
+        <v>38497</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>7511</v>
+        <v>8160</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>60290</v>
+        <v>56602</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>36829</v>
+        <v>36007</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>51537</v>
+        <v>51483</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>16762</v>
+        <v>16432</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>31883</v>
+        <v>31615</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>14562</v>
+        <v>14392</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6771</v>
+        <v>6682</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>16885</v>
+        <v>17862</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>54872</v>
+        <v>53642</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>12328</v>
+        <v>12563</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>18774</v>
+        <v>19004</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>26479</v>
+        <v>25255</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>93179</v>
+        <v>93251</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>30981</v>
+        <v>30286</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>29315</v>
+        <v>29369</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>49439</v>
+        <v>48354</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>57498</v>
+        <v>56585</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>34754</v>
+        <v>33784</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>22663</v>
+        <v>21803</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>39330</v>
+        <v>40151</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>88069</v>
+        <v>86284</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>30925</v>
+        <v>30538</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>41315</v>
+        <v>41002</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>47513</v>
+        <v>47195</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>135061</v>
+        <v>134466</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>56916</v>
+        <v>58664</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>57097</v>
+        <v>56240</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>79754</v>
+        <v>79467</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>78087</v>
+        <v>78236</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>42109</v>
+        <v>42446</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>33815</v>
+        <v>33151</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>26219</v>
+        <v>26267</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>134148</v>
+        <v>135364</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>44918</v>
+        <v>42467</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>57521</v>
+        <v>58831</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>37628</v>
+        <v>37210</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>226357</v>
+        <v>225176</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>93207</v>
+        <v>94538</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>101725</v>
+        <v>100831</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>68705</v>
+        <v>69976</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>116517</v>
+        <v>119001</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>73690</v>
+        <v>72657</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>60447</v>
+        <v>62385</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>52819</v>
+        <v>52477</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>186030</v>
+        <v>185064</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>75402</v>
+        <v>74511</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>93659</v>
+        <v>94788</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>61165</v>
+        <v>61618</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>288104</v>
+        <v>286481</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>138112</v>
+        <v>136963</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>148309</v>
+        <v>145109</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>104874</v>
+        <v>103757</v>
       </c>
     </row>
     <row r="24">
